--- a/archivos/EstudiantesIS.xlsx
+++ b/archivos/EstudiantesIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\Ing.Sistemas\Proyecto carrera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\Ing.Sistemas\Proyecto carrera\Parte2\autoscraping\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A404"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -406,2018 +411,2018 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>8515151</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8611146</v>
+        <v>20181001777</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9012564</v>
+        <v>20181001791</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9113031</v>
+        <v>20181001893</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>9113587</v>
+        <v>20181001904</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>9213995</v>
+        <v>20181001916</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>9312811</v>
+        <v>20181001918</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9410108</v>
+        <v>20181001973</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9511320</v>
+        <v>20181001991</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9511659</v>
+        <v>20181002024</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9511814</v>
+        <v>20181002029</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>9611479</v>
+        <v>20181002032</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>9615008</v>
+        <v>20181002080</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>9711357</v>
+        <v>20181002148</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>9711371</v>
+        <v>20181002255</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>9711457</v>
+        <v>20181002280</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>9712056</v>
+        <v>20181002304</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>9730427</v>
+        <v>20181002305</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>9810393</v>
+        <v>20181002319</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>9810738</v>
+        <v>20181002326</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>9811517</v>
+        <v>20181002352</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>9812726</v>
+        <v>20181002374</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>9912311</v>
+        <v>20181002385</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>9914101</v>
+        <v>20181002386</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>20001000983</v>
+        <v>20181002390</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>20001002865</v>
+        <v>20181002421</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20001002956</v>
+        <v>20181002433</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>20001003908</v>
+        <v>20181002440</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20001004844</v>
+        <v>20181002467</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20001005186</v>
+        <v>20181002474</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>20001005532</v>
+        <v>20181002478</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>20004800043</v>
+        <v>20181002540</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>20010500127</v>
+        <v>20181002634</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>20010500183</v>
+        <v>20181002645</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20010500203</v>
+        <v>20181002691</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>20011000459</v>
+        <v>20181002700</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>20011001369</v>
+        <v>20181002764</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>20011001529</v>
+        <v>20181002779</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>20011001642</v>
+        <v>20181002786</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>20011001781</v>
+        <v>20181002808</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>20011001972</v>
+        <v>20181002814</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>20011002107</v>
+        <v>20181002825</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20011002200</v>
+        <v>20181002858</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>20011002217</v>
+        <v>20181002870</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>20011002493</v>
+        <v>20181002884</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>20011003133</v>
+        <v>20181002925</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>20011003150</v>
+        <v>20181002972</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>20011003250</v>
+        <v>20181002983</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>20011003593</v>
+        <v>20181003024</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>20011003869</v>
+        <v>20181003034</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>20011003882</v>
+        <v>20181003086</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20011004221</v>
+        <v>20181003116</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>20011005004</v>
+        <v>20181003125</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>20011005183</v>
+        <v>20181003136</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>20011005822</v>
+        <v>20181003208</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>20011006986</v>
+        <v>20181003216</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>20012003191</v>
+        <v>20181003241</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>20020100249</v>
+        <v>20181003248</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>20021000372</v>
+        <v>20181003260</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>20021000505</v>
+        <v>20181003284</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>20021000660</v>
+        <v>20181003295</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>20021000748</v>
+        <v>20181003302</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>20021000801</v>
+        <v>20181003321</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>20021000917</v>
+        <v>20181003346</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>20021001349</v>
+        <v>20181003367</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>20021001395</v>
+        <v>20181003419</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>20021001605</v>
+        <v>20181003451</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>20021001624</v>
+        <v>20181003461</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>20021001783</v>
+        <v>20181003522</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>20021001890</v>
+        <v>20181003560</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>20021001947</v>
+        <v>20181003565</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>20021002026</v>
+        <v>20181003627</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>20021002107</v>
+        <v>20181003654</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>20021002827</v>
+        <v>20181003723</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>20021003781</v>
+        <v>20181003734</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>20021003926</v>
+        <v>20181003740</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>20021004022</v>
+        <v>20181003751</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>20021004402</v>
+        <v>20181003769</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>20021004409</v>
+        <v>20181003778</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>20021004437</v>
+        <v>20181003787</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>20021004665</v>
+        <v>20181003803</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>20021005139</v>
+        <v>20181003826</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>20021005640</v>
+        <v>20181003896</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>20021006209</v>
+        <v>20181003900</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>20021006273</v>
+        <v>20181003916</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>20021006968</v>
+        <v>20181003919</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>20021006998</v>
+        <v>20181003946</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>20021007115</v>
+        <v>20181003960</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>20021007128</v>
+        <v>20181003965</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>20021007231</v>
+        <v>20181003966</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>20021008314</v>
+        <v>20181004037</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>20021008510</v>
+        <v>20181004052</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>20021008779</v>
+        <v>20181004144</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>20021008970</v>
+        <v>20181004169</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>20021009782</v>
+        <v>20181004175</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>20031000005</v>
+        <v>20181004222</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>20031000032</v>
+        <v>20181004239</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>20031000035</v>
+        <v>20181004242</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>20031000067</v>
+        <v>20181004292</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>20031000068</v>
+        <v>20181004322</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>20031000074</v>
+        <v>20181004371</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>20031000078</v>
+        <v>20181004373</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>20031000092</v>
+        <v>20181004387</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>20031000101</v>
+        <v>20181004394</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>20031000111</v>
+        <v>20181004397</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>20031000122</v>
+        <v>20181004404</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>20031000123</v>
+        <v>20181004429</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>20031000129</v>
+        <v>20181004490</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>20031000139</v>
+        <v>20181004497</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>20031000158</v>
+        <v>20181004498</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>20031000177</v>
+        <v>20181004504</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>20031000180</v>
+        <v>20181004520</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>20031000181</v>
+        <v>20181004548</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>20031000185</v>
+        <v>20181004580</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>20031000202</v>
+        <v>20181004587</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>20031000205</v>
+        <v>20181004613</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>20031000206</v>
+        <v>20181004623</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>20031000216</v>
+        <v>20181004655</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>20031000220</v>
+        <v>20181004681</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>20031000231</v>
+        <v>20181004714</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>20031000235</v>
+        <v>20181004732</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>20031000237</v>
+        <v>20181004743</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>20031000238</v>
+        <v>20181004798</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>20031000245</v>
+        <v>20181004804</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>20031000263</v>
+        <v>20181004915</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>20031000264</v>
+        <v>20181004937</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>20031000265</v>
+        <v>20181004959</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>20031000274</v>
+        <v>20181004996</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>20031000275</v>
+        <v>20181005027</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>20031000277</v>
+        <v>20181005108</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>20031000278</v>
+        <v>20181005120</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>20031000297</v>
+        <v>20181005139</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>20031000321</v>
+        <v>20181005155</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>20031000326</v>
+        <v>20181005262</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>20031000331</v>
+        <v>20181005280</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>20031000336</v>
+        <v>20181005331</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>20031000343</v>
+        <v>20181005359</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>20031000344</v>
+        <v>20181005408</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>20031000347</v>
+        <v>20181005431</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>20031000354</v>
+        <v>20181005485</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>20031000371</v>
+        <v>20181005502</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>20031000386</v>
+        <v>20181005503</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>20031000402</v>
+        <v>20181005541</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>20031000412</v>
+        <v>20181005550</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>20031000413</v>
+        <v>20181005554</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>20031000414</v>
+        <v>20181005573</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>20031000415</v>
+        <v>20181005625</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>20031000425</v>
+        <v>20181005660</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>20031000430</v>
+        <v>20181005665</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>20031000431</v>
+        <v>20181005712</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>20031000433</v>
+        <v>20181005721</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>20031000449</v>
+        <v>20181005735</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>20031000461</v>
+        <v>20181005767</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>20031000477</v>
+        <v>20181005768</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>20031000488</v>
+        <v>20181005806</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>20031000491</v>
+        <v>20181005810</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>20031000509</v>
+        <v>20181005898</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>20031000530</v>
+        <v>20181005933</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>20031000570</v>
+        <v>20181005944</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>20031000575</v>
+        <v>20181005957</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>20031000579</v>
+        <v>20181005973</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>20031000582</v>
+        <v>20181005992</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>20031000645</v>
+        <v>20181006066</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>20031000656</v>
+        <v>20181006117</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>20031000672</v>
+        <v>20181006201</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>20031000685</v>
+        <v>20181006202</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>20031000712</v>
+        <v>20181006230</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>20031000715</v>
+        <v>20181006244</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>20031000718</v>
+        <v>20181006317</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>20031000723</v>
+        <v>20181006341</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>20031000725</v>
+        <v>20181006387</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>20031000745</v>
+        <v>20181006389</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>20031000749</v>
+        <v>20181006412</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>20031000778</v>
+        <v>20181006448</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>20031000785</v>
+        <v>20181006454</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>20031000792</v>
+        <v>20181006461</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>20031000799</v>
+        <v>20181006498</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>20031000807</v>
+        <v>20181006512</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>20031000817</v>
+        <v>20181006530</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>20031000819</v>
+        <v>20181006565</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>20031000825</v>
+        <v>20181006595</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>20031000846</v>
+        <v>20181006639</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>20031000871</v>
+        <v>20181006649</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>20031000897</v>
+        <v>20181006693</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>20031000957</v>
+        <v>20181006741</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>20031000971</v>
+        <v>20181006768</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>20031001021</v>
+        <v>20181006904</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>20031001041</v>
+        <v>20181006956</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>20031001086</v>
+        <v>20181006958</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>20031001095</v>
+        <v>20181006981</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>20031001108</v>
+        <v>20181006984</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>20031001141</v>
+        <v>20181007012</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>20031001204</v>
+        <v>20181007047</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>20031001215</v>
+        <v>20181007060</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>20031001225</v>
+        <v>20181007064</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>20031001272</v>
+        <v>20181007069</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>20031001273</v>
+        <v>20181007111</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>20031001278</v>
+        <v>20181007156</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>20031001283</v>
+        <v>20181007182</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>20031001286</v>
+        <v>20181007207</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>20031001294</v>
+        <v>20181007346</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>20031001300</v>
+        <v>20181007350</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>20031001322</v>
+        <v>20181007381</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>20031001332</v>
+        <v>20181007434</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>20031001338</v>
+        <v>20181007494</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>20031001409</v>
+        <v>20181007505</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>20031001418</v>
+        <v>20181007521</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>20031001421</v>
+        <v>20181007538</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>20031001430</v>
+        <v>20181007560</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>20031001432</v>
+        <v>20181007566</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>20031001444</v>
+        <v>20181007579</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>20031001450</v>
+        <v>20181007590</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>20031001458</v>
+        <v>20181007592</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>20031001473</v>
+        <v>20181007595</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>20031001520</v>
+        <v>20181007602</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>20031001538</v>
+        <v>20181007610</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>20031001539</v>
+        <v>20181007641</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>20031001545</v>
+        <v>20181007653</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>20031001547</v>
+        <v>20181007740</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>20031001548</v>
+        <v>20181007748</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>20031001553</v>
+        <v>20181007757</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>20031001557</v>
+        <v>20181007788</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>20031001560</v>
+        <v>20181007793</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>20031001564</v>
+        <v>20181007808</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>20031001565</v>
+        <v>20181007809</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>20031001570</v>
+        <v>20181007893</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>20031001574</v>
+        <v>20181007907</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>20031001576</v>
+        <v>20181007914</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>20031001582</v>
+        <v>20181007945</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>20031001586</v>
+        <v>20181007966</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>20031001588</v>
+        <v>20181008000</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>20031001596</v>
+        <v>20181008046</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>20031001600</v>
+        <v>20181008051</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>20031001602</v>
+        <v>20181008085</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>20031001609</v>
+        <v>20181008155</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>20031001610</v>
+        <v>20181008164</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>20031001612</v>
+        <v>20181008181</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>20031001613</v>
+        <v>20181008214</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>20031001615</v>
+        <v>20181008259</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>20031001616</v>
+        <v>20181008294</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>20031001620</v>
+        <v>20181008317</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>20031001622</v>
+        <v>20181008320</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>20031001631</v>
+        <v>20181008336</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>20031001634</v>
+        <v>20181008339</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>20031001637</v>
+        <v>20181008367</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>20031001648</v>
+        <v>20181008421</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>20031001674</v>
+        <v>20181008467</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>20031001677</v>
+        <v>20181008500</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>20031001678</v>
+        <v>20181008501</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>20031001686</v>
+        <v>20181008594</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>20031001689</v>
+        <v>20181800103</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>20031001692</v>
+        <v>20181900087</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>20031001694</v>
+        <v>20181900092</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>20031001706</v>
+        <v>20181900100</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>20031001708</v>
+        <v>20181900122</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>20031001712</v>
+        <v>20181900135</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>20031001716</v>
+        <v>20181900151</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>20031001731</v>
+        <v>20181900178</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>20031001736</v>
+        <v>20181900319</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>20031001740</v>
+        <v>20181900377</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>20031001742</v>
+        <v>20181900381</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>20031001743</v>
+        <v>20181900411</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>20031001753</v>
+        <v>20181900459</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>20031001754</v>
+        <v>20181900499</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>20031001772</v>
+        <v>20181900572</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>20031001773</v>
+        <v>20181900636</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>20031001779</v>
+        <v>20181900638</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>20031001789</v>
+        <v>20181900639</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>20031001793</v>
+        <v>20181900710</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>20031001798</v>
+        <v>20182000026</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>20031001802</v>
+        <v>20182000055</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>20031001810</v>
+        <v>20182000075</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>20031001812</v>
+        <v>20182000143</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>20031001825</v>
+        <v>20182000189</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>20031001827</v>
+        <v>20182000190</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>20031001835</v>
+        <v>20182000204</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>20031001838</v>
+        <v>20182000226</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>20031001850</v>
+        <v>20182000295</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>20031001857</v>
+        <v>20182000312</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>20031001865</v>
+        <v>20182000334</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>20031001866</v>
+        <v>20182000350</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>20031001868</v>
+        <v>20182000388</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>20031001913</v>
+        <v>20182000406</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>20031001922</v>
+        <v>20182000447</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>20031001940</v>
+        <v>20182000503</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>20031001945</v>
+        <v>20182000505</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>20031001949</v>
+        <v>20182000526</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>20031001969</v>
+        <v>20182000536</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>20031001972</v>
+        <v>20182000660</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>20031001975</v>
+        <v>20182000746</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>20031001991</v>
+        <v>20182000748</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>20031001993</v>
+        <v>20182000774</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>20031001997</v>
+        <v>20182000795</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>20031002012</v>
+        <v>20182000820</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>20031002015</v>
+        <v>20182000822</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>20031002016</v>
+        <v>20182000842</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>20031002024</v>
+        <v>20182000854</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>20031002026</v>
+        <v>20182000894</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>20031002029</v>
+        <v>20182000896</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>20031002033</v>
+        <v>20182000917</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>20031002035</v>
+        <v>20182000947</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>20031002037</v>
+        <v>20182000969</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>20031002057</v>
+        <v>20182001021</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>20031002063</v>
+        <v>20182001117</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>20031002073</v>
+        <v>20182001299</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>20031002099</v>
+        <v>20182001393</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>20031002100</v>
+        <v>20182001423</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>20031002104</v>
+        <v>20182001564</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>20031002118</v>
+        <v>20182001593</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>20031002134</v>
+        <v>20182001611</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>20031002145</v>
+        <v>20182001662</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>20031002162</v>
+        <v>20182001683</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>20031002173</v>
+        <v>20182001725</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>20031002186</v>
+        <v>20182001877</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>20031002199</v>
+        <v>20182001881</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>20031002200</v>
+        <v>20182001924</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>20031002205</v>
+        <v>20182001930</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>20031002212</v>
+        <v>20182001931</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>20031002234</v>
+        <v>20182001932</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>20031002255</v>
+        <v>20182001943</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>20031002262</v>
+        <v>20182002043</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>20031002263</v>
+        <v>20182002049</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>20031002269</v>
+        <v>20182002137</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>20031002276</v>
+        <v>20182002156</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>20031002279</v>
+        <v>20182002183</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>20031002291</v>
+        <v>20182002200</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>20031002303</v>
+        <v>20182002222</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>20031002311</v>
+        <v>20182002248</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>20031002313</v>
+        <v>20182002270</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>20031002324</v>
+        <v>20182002304</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>20031002328</v>
+        <v>20182002308</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>20031002334</v>
+        <v>20182002358</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>20031002342</v>
+        <v>20182002385</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>20031002343</v>
+        <v>20182002400</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>20031002349</v>
+        <v>20182002437</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>20031002365</v>
+        <v>20182002463</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>20031002367</v>
+        <v>20182002469</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>20031002376</v>
+        <v>20182002517</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>20031002391</v>
+        <v>20182002621</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>20031002406</v>
+        <v>20182002675</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>20031002419</v>
+        <v>20182002695</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>20031002427</v>
+        <v>20182002697</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>20031002434</v>
+        <v>20182002747</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>20031002450</v>
+        <v>20182002760</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>20031002465</v>
+        <v>20182002764</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>20031002469</v>
+        <v>20182002792</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>20031002484</v>
+        <v>20182002803</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>20031002489</v>
+        <v>20182002812</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>20031002494</v>
+        <v>20182002839</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>20031002498</v>
+        <v>20182002903</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>20031002505</v>
+        <v>20182002923</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>20031002532</v>
+        <v>20182002931</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>20031002539</v>
+        <v>20182002935</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>20031002542</v>
+        <v>20182002937</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>20031002544</v>
+        <v>20182003021</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>20031002548</v>
+        <v>20182003025</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>20031002570</v>
+        <v>20182003047</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>20031002574</v>
+        <v>20182003056</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>20031002585</v>
+        <v>20182003094</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>20031002600</v>
+        <v>20182003107</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>20031002608</v>
+        <v>20182003119</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>20031002617</v>
+        <v>20182003151</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>20031002620</v>
+        <v>20182003221</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>20031002626</v>
+        <v>20182003238</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>20031002628</v>
+        <v>20182100023</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>20031002629</v>
+        <v>20182100044</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>20031002632</v>
+        <v>20182100045</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>20031002646</v>
+        <v>20182100115</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>20031002654</v>
+        <v>20182100119</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>20031002668</v>
+        <v>20182100144</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>20031002690</v>
+        <v>20182100145</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>20031002700</v>
+        <v>20182100151</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>20031002722</v>
+        <v>20182100153</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>20031002723</v>
+        <v>20182100164</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>20031002725</v>
+        <v>20182100169</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>20031002734</v>
+        <v>20182100171</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>20031002735</v>
+        <v>20182100180</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>20031002741</v>
+        <v>20182100208</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>20031002742</v>
+        <v>20182100227</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>20031002746</v>
+        <v>20182100248</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>20031002754</v>
+        <v>20182100268</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>20031002761</v>
+        <v>20182100301</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>20031002765</v>
+        <v>20182200011</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>20031002773</v>
+        <v>20182200025</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>20031002792</v>
+        <v>20182200207</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>20031002796</v>
+        <v>20182200386</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>20031002800</v>
+        <v>20182300014</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>20031002805</v>
+        <v>20182300053</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>20031002817</v>
+        <v>20182300064</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>20031002821</v>
+        <v>20182300096</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>20031002836</v>
+        <v>20182300117</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>20031002861</v>
+        <v>20182300315</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>20031002880</v>
+        <v>20182400154</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>20031002900</v>
+        <v>20182400156</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>20031002923</v>
+        <v>20182500068</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>20031002941</v>
+        <v>20182500138</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>20031002946</v>
+        <v>20182500271</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>20031002947</v>
+        <v>20183000023</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>20031002948</v>
+        <v>20183000162</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>20031003012</v>
+        <v>20183000236</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>20031003019</v>
+        <v>20183000268</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>20031006423</v>
+        <v>20183000270</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>20031006823</v>
+        <v>20183000375</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
